--- a/biology/Médecine/1758_en_santé_et_médecine/1758_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1758_en_santé_et_médecine/1758_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1758_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1758_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1758 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1758_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1758_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fin 1758 et début 1759, Madagascar et l'île Maurice sont atteints de la variole[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fin 1758 et début 1759, Madagascar et l'île Maurice sont atteints de la variole.
 Date inconnue
-L'Académie de chirurgie approuve la « machine » de démonstration d'Angélique du Coudray, reproduction du bassin d'une femme en couches qu'elle emploie dans ses cours aux sages-femmes[2].
-Le médecin écossais Francis Home (en) fait le premier essai de vaccination contre la rougeole[3],[4].</t>
+L'Académie de chirurgie approuve la « machine » de démonstration d'Angélique du Coudray, reproduction du bassin d'une femme en couches qu'elle emploie dans ses cours aux sages-femmes.
+Le médecin écossais Francis Home (en) fait le premier essai de vaccination contre la rougeole,.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1758_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1758_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Joseph Raulin (1708-1784) fait publier son Traité des affections vaporeuses du sexe[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Joseph Raulin (1708-1784) fait publier son Traité des affections vaporeuses du sexe.
 Le médecin et économiste François Quesnay fait publier son Tableau économique.</t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1758_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1758_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>9 mars : Franz Joseph Gall (mort en 1828), médecin allemand, considéré comme le père fondateur de la phrénologie.
 12 octobre : Vincenzo Dandolo (mort en 1819), médecin, chimiste, agronome et homme politique italien.</t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1758_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1758_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>22 avril : Antoine de Jussieu (né en 1686), médecin et botaniste français.
 Date à préciser
